--- a/Languages/German/Instruction.xlsx
+++ b/Languages/German/Instruction.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pavloviaP\EEGML_RS\restingStatePresentation\Languages\German\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A5CAF-3A48-4384-B786-A0D5DDC4E66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="390" yWindow="2325" windowWidth="11310" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,20 +30,30 @@
     <t>Instructions</t>
   </si>
   <si>
-    <t>Zunächst werden Prozesse des Gehirns unter Entspannungsbedingungen untersucht. Es ist daher in diesem Teil der Untersuchung sehr wichtig, dass Sie sich möglichst gut entspannen. Während der Aufzeichnung des Ruhe EEGs werden Sie angewiesen, die Augen zu öffnen oder zu schließen. Wenn Sie die Augen öffnen, oder offen behalten sollen, dann richten Sie bitte ihren Blick entspannt auf den Monitor. Bei der Anweisung die Augen zu schließen, oder geschlossen zu lassen, folgen Sie dieser Anweisung entspannt. Um zu Beginnen, drücken Sie nun bitte die Leertaste.</t>
+    <t>Zunächst werden Prozesse des Gehirns unter Entspannungsbedingungen untersucht. 
+Es ist daher in diesem Teil der Untersuchung sehr wichtig, dass Sie sich möglichst gut entspannen. Während der Aufzeichnung des Ruhe EEGs werden Sie angewiesen, die Augen zu öffnen oder zu schließen. Wenn Sie die Augen öffnen, oder offen behalten sollen, dann richten Sie bitte ihren Blick entspannt auf den Monitor. 
+Bei der Anweisung die Augen zu schließen, oder geschlossen zu lassen, folgen Sie dieser Anweisung entspannt. 
+Um zu Beginnen, drücken Sie nun bitte die Leertaste.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -73,10 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,35 +371,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
